--- a/2022/data/status.xlsx
+++ b/2022/data/status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iattc-my.sharepoint.com/personal/hkxu_iattc_org/Documents/IATTC/2022/SAC13/Indicators/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iattc-my.sharepoint.com/personal/hkxu_iattc_org/Documents/Git/Indicators/2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC10485439DF4C725BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE40E89-9122-4F5F-AF78-5C13DC0F535B}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC10485439DF4C725BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28BCD39D-F759-4ED9-A19E-9E55330E2EED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11055" yWindow="2205" windowWidth="17745" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/data/status.xlsx
+++ b/2022/data/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iattc-my.sharepoint.com/personal/hkxu_iattc_org/Documents/Git/Indicators/2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC10485439DF4C725BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28BCD39D-F759-4ED9-A19E-9E55330E2EED}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC10485439DF4C725BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3636CF0A-8E29-4328-9DB4-C63D86F01F28}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="2205" windowWidth="17745" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -455,7 +455,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -479,7 +479,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/2022/data/status.xlsx
+++ b/2022/data/status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iattc-my.sharepoint.com/personal/hkxu_iattc_org/Documents/Git/Indicators/2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC10485439DF4C725BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3636CF0A-8E29-4328-9DB4-C63D86F01F28}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{42AD5D9A-0294-49DC-A0D5-32E50C453CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{231FFD25-F281-4224-9BCA-F7D9910C60F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,15 +88,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,11 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -123,18 +111,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -417,7 +402,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,13 +428,13 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -485,25 +470,25 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
